--- a/biology/Botanique/Waltheria_indica/Waltheria_indica.xlsx
+++ b/biology/Botanique/Waltheria_indica/Waltheria_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Waltheria indica est une espèce de plantes tropicales de la famille des Malvacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Waltheria africana K. Schum.
@@ -555,9 +569,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plante au port dressé , avec plusieurs tiges partant de la base et pouvant atteindre 1 à 2 mètres de haut[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plante au port dressé , avec plusieurs tiges partant de la base et pouvant atteindre 1 à 2 mètres de haut.
 Feuilles pétiolées à marge dentée.
 Inflorescences en glomérules axillaires.</t>
         </is>
@@ -587,7 +603,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition tropicale (Amérique, Afrique, Asie, Océanie), probablement originaire d'Amérique centrale.
 </t>
@@ -618,9 +636,11 @@
           <t>Plante envahissante</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Waltheria indica est considérée comme envahissante à La Réunion[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Waltheria indica est considérée comme envahissante à La Réunion
 </t>
         </is>
       </c>
@@ -649,9 +669,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Waltheria indica contient des Composés phénoliques et flavonoïdes (kaempférol, quercétol, épicatéchine et tiliroside)[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Waltheria indica contient des Composés phénoliques et flavonoïdes (kaempférol, quercétol, épicatéchine et tiliroside).
 </t>
         </is>
       </c>
